--- a/data/Oil_blocks.xlsx
+++ b/data/Oil_blocks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6C435-48AE-4476-91FA-ED9AAF0CE568}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFD321-FEDC-4557-ADC4-61151C52320D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{5CA18489-DA8F-49F6-A061-903389CD952A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Global</t>
   </si>
@@ -39,57 +39,15 @@
     <t>All</t>
   </si>
   <si>
-    <t>US UNEMPLOYMENT RATE SADJ</t>
-  </si>
-  <si>
-    <t>US MONEY SUPPLY M1 CURA</t>
-  </si>
-  <si>
     <t>World GDP</t>
   </si>
   <si>
-    <t>US CPI - ALL URBAN: ALL ITEMS SADJ</t>
-  </si>
-  <si>
     <t>Natural Gas (US)</t>
   </si>
   <si>
-    <t>Argicultural commodity index (WB)</t>
-  </si>
-  <si>
     <t>Metal index (WB)</t>
   </si>
   <si>
-    <t>US ROTARY RIGS IN OPERATION - CRUDE OIL VOLN</t>
-  </si>
-  <si>
-    <t>OC PETROLEUM: STOCKS VOLN</t>
-  </si>
-  <si>
-    <t>OX SURPLUS PRODUCTION CAPACITY - CRUDE OIL VOLN</t>
-  </si>
-  <si>
-    <t>WD CRUDE OIL PRODUCTION - WORLD VOLN</t>
-  </si>
-  <si>
-    <t>Crude Oil Total Prod OPEC - TURNOVER BY VOLUME</t>
-  </si>
-  <si>
-    <t>Crude Oil Total Prod Non-OPEC - TURNOVER BY VOLUME</t>
-  </si>
-  <si>
-    <t>Crude Oil Prod. Saudi Arabia - TURNOVER BY VOLUME</t>
-  </si>
-  <si>
-    <t>US TRADE-WEIGHTED VALUE OF US DOLLAR AGAINST MAJOR CURRENCIES</t>
-  </si>
-  <si>
-    <t>US TREASURY BILL RATE - 3 MONTH (EP) NADJ</t>
-  </si>
-  <si>
-    <t>S&amp;P 500 COMPOSITE - PRICE INDEX</t>
-  </si>
-  <si>
     <t>OSX</t>
   </si>
   <si>
@@ -130,6 +88,69 @@
   </si>
   <si>
     <t>Demand</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t>US Money supply</t>
+  </si>
+  <si>
+    <t>US CPI</t>
+  </si>
+  <si>
+    <t>Agriculture Commodity Index</t>
+  </si>
+  <si>
+    <t>Rotary rigs</t>
+  </si>
+  <si>
+    <t>Petroleum stocks volume</t>
+  </si>
+  <si>
+    <t>Surplus production capacity</t>
+  </si>
+  <si>
+    <t>Crude oil production</t>
+  </si>
+  <si>
+    <t>OPEC - oil production</t>
+  </si>
+  <si>
+    <t>Non-OPEC oil production</t>
+  </si>
+  <si>
+    <t>Saudi - oil production</t>
+  </si>
+  <si>
+    <t>USD trade-weighted</t>
+  </si>
+  <si>
+    <t>Treasury bill 3yrs</t>
+  </si>
+  <si>
+    <t>S&amp;P500</t>
+  </si>
+  <si>
+    <t>Crack spread</t>
+  </si>
+  <si>
+    <t>Crude Oil &amp;Petroleum Import</t>
+  </si>
+  <si>
+    <t>OECD - Inventory volume</t>
+  </si>
+  <si>
+    <t>Refinery Utilization</t>
+  </si>
+  <si>
+    <t>Global Factor</t>
+  </si>
+  <si>
+    <t>Energy Factor</t>
+  </si>
+  <si>
+    <t>Killan Index</t>
   </si>
 </sst>
 </file>
@@ -200,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -229,6 +250,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867970F9-63EC-4B4F-B28E-85FB5333FA23}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -579,7 +606,9 @@
     <col min="4" max="4" width="1.33203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -587,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3">
         <f>COUNTIF($G$3:$AE$100, A1)</f>
@@ -597,23 +626,23 @@
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>34</v>
+      <c r="G1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -621,10 +650,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C25" si="0">COUNTIF($G$3:$AE$100, A2)</f>
+        <f t="shared" ref="C2:C32" si="0">COUNTIF($G$3:$AE$100, A2)</f>
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -634,23 +663,23 @@
       <c r="F2" s="10">
         <v>12</v>
       </c>
-      <c r="G2" s="11">
-        <v>12</v>
-      </c>
-      <c r="H2" s="11">
-        <v>12</v>
-      </c>
-      <c r="I2" s="11">
-        <v>12</v>
-      </c>
-      <c r="J2" s="11">
-        <v>12</v>
-      </c>
-      <c r="K2" s="11">
-        <v>12</v>
-      </c>
-      <c r="L2" s="11">
-        <v>12</v>
+      <c r="G2" s="15">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="15">
+        <v>6</v>
+      </c>
+      <c r="K2" s="15">
+        <v>6</v>
+      </c>
+      <c r="L2" s="15">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -658,11 +687,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="12" t="s">
@@ -671,22 +700,22 @@
       <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="13">
         <v>21</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="13">
         <v>21</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="13">
         <v>21</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="13">
         <v>21</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="13">
         <v>21</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="13">
         <v>21</v>
       </c>
     </row>
@@ -695,30 +724,30 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="G4" s="2">
+      <c r="G4" s="13">
         <v>22</v>
       </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="13">
         <v>8</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="13">
         <v>25</v>
       </c>
-      <c r="L4" s="2">
-        <v>3</v>
+      <c r="L4" s="13">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -726,27 +755,30 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="G5" s="2">
+      <c r="G5" s="13">
         <v>23</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="13">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="13">
         <v>6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="13">
         <v>9</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="13">
         <v>20</v>
+      </c>
+      <c r="L5" s="13">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -754,21 +786,26 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>14</v>
+      </c>
+      <c r="I6" s="13">
         <v>7</v>
       </c>
-      <c r="J6" s="2">
-        <v>10</v>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
+        <v>24</v>
+      </c>
+      <c r="L6" s="13">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -776,18 +813,20 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="H7" s="2">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2">
-        <v>11</v>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -795,62 +834,50 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="H8" s="2">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="J9" s="2">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="J10" s="2">
-        <v>14</v>
-      </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -859,11 +886,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -872,11 +899,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4"/>
     </row>
@@ -885,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
@@ -898,11 +925,11 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -911,11 +938,11 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -924,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
@@ -937,7 +964,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
@@ -950,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
@@ -963,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
@@ -976,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
@@ -989,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
@@ -1002,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
@@ -1015,11 +1042,11 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -1028,47 +1055,103 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C2 B3:C60 A3:A101 C61:C101">
+  <conditionalFormatting sqref="A1:C2 C61:C101 A3:A101 B3:C60">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$C1=0</formula>
     </cfRule>

--- a/data/Oil_blocks.xlsx
+++ b/data/Oil_blocks.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DFD321-FEDC-4557-ADC4-61151C52320D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DCF692-1C10-429F-8B02-132DBBD53699}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{5CA18489-DA8F-49F6-A061-903389CD952A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2" xr2:uid="{5CA18489-DA8F-49F6-A061-903389CD952A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oil1" sheetId="1" r:id="rId1"/>
+    <sheet name="GA1" sheetId="1" r:id="rId1"/>
+    <sheet name="GA2" sheetId="2" r:id="rId2"/>
+    <sheet name="GA3" sheetId="3" r:id="rId3"/>
+    <sheet name="GA4" sheetId="4" r:id="rId4"/>
+    <sheet name="Final" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="54">
   <si>
     <t>Global</t>
   </si>
@@ -42,115 +46,151 @@
     <t>World GDP</t>
   </si>
   <si>
-    <t>Natural Gas (US)</t>
-  </si>
-  <si>
-    <t>Metal index (WB)</t>
-  </si>
-  <si>
     <t>OSX</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>VIX index</t>
+    <t>Brent Crude oil</t>
   </si>
   <si>
-    <t>Europe Brent Spot FOB</t>
+    <t>BCO-1</t>
   </si>
   <si>
-    <t>F_spread</t>
+    <t>BCO-2</t>
   </si>
   <si>
-    <t>BB_spread</t>
+    <t>World Prod</t>
   </si>
   <si>
-    <t>AR-Oil</t>
+    <t>WP-1</t>
   </si>
   <si>
-    <t>Brent-1</t>
+    <t>OPEC Prod</t>
   </si>
   <si>
-    <t>Brent-2</t>
+    <t>OPEC-1</t>
   </si>
   <si>
-    <t>Financial</t>
+    <t>OPEC-2</t>
   </si>
   <si>
-    <t>Commodities</t>
+    <t>Non-OPEC Prod</t>
   </si>
   <si>
-    <t>Supply</t>
+    <t>Saudi Prod</t>
   </si>
   <si>
-    <t>Price discovery</t>
+    <t>OECD inv</t>
   </si>
   <si>
-    <t>Demand</t>
+    <t>OECD-1</t>
   </si>
   <si>
-    <t>Unemployment rate</t>
+    <t>OECD-2</t>
   </si>
   <si>
-    <t>US Money supply</t>
+    <t>Agri</t>
   </si>
   <si>
-    <t>US CPI</t>
+    <t>Metal</t>
   </si>
   <si>
-    <t>Agriculture Commodity Index</t>
+    <t>Metal-1</t>
   </si>
   <si>
-    <t>Rotary rigs</t>
+    <t>Metal-2</t>
   </si>
   <si>
-    <t>Petroleum stocks volume</t>
+    <t>OSX-1</t>
   </si>
   <si>
-    <t>Surplus production capacity</t>
+    <t>OSX-2</t>
   </si>
   <si>
-    <t>Crude oil production</t>
+    <t>VIX</t>
   </si>
   <si>
-    <t>OPEC - oil production</t>
+    <t>VIX-1</t>
   </si>
   <si>
-    <t>Non-OPEC oil production</t>
+    <t>VIX-2</t>
   </si>
   <si>
-    <t>Saudi - oil production</t>
+    <t>Fspread</t>
   </si>
   <si>
-    <t>USD trade-weighted</t>
+    <t>BBspread</t>
   </si>
   <si>
-    <t>Treasury bill 3yrs</t>
+    <t>BB-1</t>
   </si>
   <si>
-    <t>S&amp;P500</t>
+    <t>NYMEC Crack spread</t>
   </si>
   <si>
-    <t>Crack spread</t>
+    <t>MoneySupply</t>
   </si>
   <si>
-    <t>Crude Oil &amp;Petroleum Import</t>
+    <t>MS-1</t>
   </si>
   <si>
-    <t>OECD - Inventory volume</t>
+    <t>MS-2</t>
   </si>
   <si>
-    <t>Refinery Utilization</t>
+    <t>Surplus Cap</t>
   </si>
   <si>
-    <t>Global Factor</t>
+    <t>Unemp</t>
   </si>
   <si>
-    <t>Energy Factor</t>
+    <t>CPI</t>
   </si>
   <si>
-    <t>Killan Index</t>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Rigs Op</t>
+  </si>
+  <si>
+    <t>Oil Stock</t>
+  </si>
+  <si>
+    <t>USD Trade Weighted</t>
+  </si>
+  <si>
+    <t>Treasury Rate</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>US import</t>
+  </si>
+  <si>
+    <t>Refinery Util</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Kilian-1</t>
   </si>
 </sst>
 </file>
@@ -261,7 +301,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -293,6 +413,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391126</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>264414</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3B3DEC-5DFC-4D5F-A991-E97895DCDBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2890486" y="1303020"/>
+          <a:ext cx="6731288" cy="3285009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>531453</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>348233</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBACD9B-6CA4-42C5-840F-A0F4993BDC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3030813" y="1386840"/>
+          <a:ext cx="6674780" cy="3267861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867970F9-63EC-4B4F-B28E-85FB5333FA23}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -616,45 +834,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3">
         <f>COUNTIF($G$3:$AE$100, A1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4"/>
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>20</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C32" si="0">COUNTIF($G$3:$AE$100, A2)</f>
-        <v>1</v>
+        <f t="shared" ref="C2:C44" si="0">COUNTIF($G$3:$AE$100, A2)</f>
+        <v>0</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
@@ -678,16 +894,14 @@
       <c r="K2" s="15">
         <v>6</v>
       </c>
-      <c r="L2" s="15">
-        <v>6</v>
-      </c>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" si="0"/>
@@ -701,123 +915,115 @@
         <v>3</v>
       </c>
       <c r="G3" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H3" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I3" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J3" s="13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="K3" s="13">
-        <v>21</v>
-      </c>
-      <c r="L3" s="13">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="G4" s="13">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H4" s="13">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I4" s="13">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J4" s="13">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K4" s="13">
-        <v>25</v>
-      </c>
-      <c r="L4" s="13">
-        <v>31</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4"/>
       <c r="G5" s="13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="13">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I5" s="13">
+        <v>31</v>
+      </c>
+      <c r="J5" s="13">
         <v>6</v>
       </c>
-      <c r="J5" s="13">
-        <v>9</v>
-      </c>
       <c r="K5" s="13">
-        <v>20</v>
-      </c>
-      <c r="L5" s="13">
-        <v>26</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <v>15</v>
+      </c>
       <c r="H6" s="13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I6" s="13">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="13">
-        <v>24</v>
-      </c>
-      <c r="L6" s="13">
-        <v>32</v>
-      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4"/>
       <c r="G7" s="13"/>
@@ -825,20 +1031,18 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13">
-        <v>30</v>
-      </c>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -847,11 +1051,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -860,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
@@ -873,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
@@ -886,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
@@ -899,7 +1103,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
@@ -912,11 +1116,11 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4"/>
     </row>
@@ -925,11 +1129,11 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4"/>
     </row>
@@ -938,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
@@ -951,7 +1155,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
@@ -964,11 +1168,11 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -977,11 +1181,11 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -990,11 +1194,11 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4"/>
     </row>
@@ -1003,11 +1207,11 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -1016,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
@@ -1029,11 +1233,11 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4"/>
     </row>
@@ -1042,11 +1246,11 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -1055,11 +1259,11 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4"/>
     </row>
@@ -1068,7 +1272,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
@@ -1081,7 +1285,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
@@ -1094,11 +1298,11 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4"/>
     </row>
@@ -1107,7 +1311,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
@@ -1120,11 +1324,11 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -1133,7 +1337,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
@@ -1146,72 +1350,168 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1230,6 +1530,3851 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="C76" s="3"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="C101" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C61:C101">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$C61=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C2 C61:C101 A3:A101 B3:C60">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>$C1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0C1339-F2E9-4DDD-9AA4-54C92D3ABE79}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3">
+        <f t="shared" ref="C1:C44" si="0">COUNTIF($G$3:$AC$100, A1)</f>
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="13">
+        <v>15</v>
+      </c>
+      <c r="H4" s="13">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13">
+        <v>37</v>
+      </c>
+      <c r="J4" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" s="13">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13">
+        <v>6</v>
+      </c>
+      <c r="I5" s="13">
+        <v>22</v>
+      </c>
+      <c r="J5" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6" s="13">
+        <v>19</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="C76" s="3"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="C101" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C61:C101">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$C61=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C2 C61:C101 A3:A101 B3:C60">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$C1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9FBED7-6301-4AA0-8848-C55CD9CA7595}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3">
+        <f t="shared" ref="C1:C45" si="0">COUNTIF($G$3:$AC$100, A1)</f>
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="13">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13">
+        <v>42</v>
+      </c>
+      <c r="J4" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" s="13">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13">
+        <v>19</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="C76" s="3"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="C101" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C61:C101">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$C61=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C2 C61:C101 A3:A101 B3:C60">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$C1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9753327-7068-4EEE-B6AA-F8BE3E8C4B4B}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3">
+        <f t="shared" ref="C1:C44" si="0">COUNTIF($G$3:$AC$100, A1)</f>
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="13">
+        <v>42</v>
+      </c>
+      <c r="H4" s="13">
+        <v>19</v>
+      </c>
+      <c r="I4" s="13">
+        <v>45</v>
+      </c>
+      <c r="J4" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" s="13">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
+        <v>38</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="3"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="C76" s="3"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="C101" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C61:C101">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$C61=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C2 C61:C101 A3:A101 B3:C60">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C1=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A0E265-3BFC-4E0E-8DDB-850F730DDEEC}">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3">
+        <f t="shared" ref="C1:C44" si="0">COUNTIF($G$3:$AC$100, A1)</f>
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15">
+        <v>6</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="G4" s="13">
+        <v>30</v>
+      </c>
+      <c r="H4" s="13">
+        <v>28</v>
+      </c>
+      <c r="I4" s="13">
+        <v>20</v>
+      </c>
+      <c r="J4" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="G5" s="13">
+        <v>17</v>
+      </c>
+      <c r="H5" s="13">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13">
+        <v>13</v>
+      </c>
+      <c r="J5" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="G6" s="13">
+        <v>4</v>
+      </c>
+      <c r="H6" s="13">
+        <v>19</v>
+      </c>
+      <c r="I6" s="13">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>
